--- a/Konsep Aplikasi Master Data HC.xlsx
+++ b/Konsep Aplikasi Master Data HC.xlsx
@@ -821,7 +821,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1128,7 +1128,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,163 +1234,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1669,7 +1670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1773,19 +1774,19 @@
       <c r="AC1" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AD1" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
       <c r="AM1" s="21" t="s">
         <v>241</v>
       </c>
@@ -1795,398 +1796,398 @@
       <c r="AO1" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AP1" s="41" t="s">
+      <c r="AP1" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="BG1" s="41" t="s">
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="BG1" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BJ1" s="41"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
       <c r="BK1" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="BL1" s="41" t="s">
+      <c r="BL1" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="BM1" s="41"/>
-      <c r="BN1" s="41"/>
-      <c r="BO1" s="41"/>
-      <c r="BP1" s="41"/>
-      <c r="BQ1" s="41"/>
-      <c r="BR1" s="41"/>
-      <c r="BS1" s="41"/>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="41"/>
-      <c r="CD1" s="41" t="s">
+      <c r="BM1" s="78"/>
+      <c r="BN1" s="78"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="78"/>
+      <c r="BQ1" s="78"/>
+      <c r="BR1" s="78"/>
+      <c r="BS1" s="78"/>
+      <c r="BT1" s="78"/>
+      <c r="BU1" s="78"/>
+      <c r="CD1" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="CE1" s="41"/>
-      <c r="CF1" s="41"/>
-      <c r="CG1" s="41"/>
-      <c r="CH1" s="41"/>
-      <c r="CI1" s="41"/>
-      <c r="CJ1" s="41"/>
-      <c r="CK1" s="41"/>
-      <c r="CL1" s="41"/>
-      <c r="CM1" s="41"/>
-      <c r="CN1" s="41" t="s">
+      <c r="CE1" s="78"/>
+      <c r="CF1" s="78"/>
+      <c r="CG1" s="78"/>
+      <c r="CH1" s="78"/>
+      <c r="CI1" s="78"/>
+      <c r="CJ1" s="78"/>
+      <c r="CK1" s="78"/>
+      <c r="CL1" s="78"/>
+      <c r="CM1" s="78"/>
+      <c r="CN1" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="CO1" s="41"/>
-      <c r="CP1" s="41"/>
-      <c r="CQ1" s="41"/>
-      <c r="CR1" s="41"/>
-      <c r="CS1" s="41"/>
-      <c r="CT1" s="41"/>
-      <c r="CU1" s="41"/>
-      <c r="CV1" s="41"/>
-      <c r="CW1" s="41"/>
+      <c r="CO1" s="78"/>
+      <c r="CP1" s="78"/>
+      <c r="CQ1" s="78"/>
+      <c r="CR1" s="78"/>
+      <c r="CS1" s="78"/>
+      <c r="CT1" s="78"/>
+      <c r="CU1" s="78"/>
+      <c r="CV1" s="78"/>
+      <c r="CW1" s="78"/>
     </row>
     <row r="2" spans="1:111" s="35" customFormat="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="55" t="s">
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="Y2" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="Z2" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="AA2" s="49" t="s">
+      <c r="AA2" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" s="52" t="s">
+      <c r="AC2" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="AD2" s="59" t="s">
+      <c r="AD2" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="62" t="s">
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="AN2" s="62" t="s">
+      <c r="AN2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="62" t="s">
+      <c r="AO2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="79" t="s">
+      <c r="AP2" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="48" t="s">
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="48" t="s">
+      <c r="AW2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="62" t="s">
+      <c r="AX2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="AY2" s="62" t="s">
+      <c r="AY2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AZ2" s="48" t="s">
+      <c r="AZ2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="BA2" s="75" t="s">
+      <c r="BA2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="BB2" s="76"/>
-      <c r="BC2" s="48" t="s">
+      <c r="BB2" s="63"/>
+      <c r="BC2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="48" t="s">
+      <c r="BD2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="BE2" s="65" t="s">
+      <c r="BE2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="69" t="s">
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="71"/>
-      <c r="BK2" s="64" t="s">
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="BL2" s="69" t="s">
+      <c r="BL2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="71"/>
-      <c r="BV2" s="69" t="s">
+      <c r="BM2" s="57"/>
+      <c r="BN2" s="57"/>
+      <c r="BO2" s="57"/>
+      <c r="BP2" s="57"/>
+      <c r="BQ2" s="57"/>
+      <c r="BR2" s="57"/>
+      <c r="BS2" s="57"/>
+      <c r="BT2" s="57"/>
+      <c r="BU2" s="58"/>
+      <c r="BV2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="71"/>
-      <c r="CC2" s="85" t="s">
+      <c r="BW2" s="57"/>
+      <c r="BX2" s="57"/>
+      <c r="BY2" s="57"/>
+      <c r="BZ2" s="57"/>
+      <c r="CA2" s="57"/>
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="CD2" s="69" t="s">
+      <c r="CD2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
-      <c r="CJ2" s="70"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="70"/>
-      <c r="CM2" s="71"/>
-      <c r="CN2" s="64" t="s">
+      <c r="CE2" s="57"/>
+      <c r="CF2" s="57"/>
+      <c r="CG2" s="57"/>
+      <c r="CH2" s="57"/>
+      <c r="CI2" s="57"/>
+      <c r="CJ2" s="57"/>
+      <c r="CK2" s="57"/>
+      <c r="CL2" s="57"/>
+      <c r="CM2" s="58"/>
+      <c r="CN2" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="CO2" s="64"/>
-      <c r="CP2" s="64"/>
-      <c r="CQ2" s="64"/>
-      <c r="CR2" s="64"/>
-      <c r="CS2" s="64"/>
-      <c r="CT2" s="64"/>
-      <c r="CU2" s="64"/>
-      <c r="CV2" s="64"/>
-      <c r="CW2" s="64"/>
-      <c r="CX2" s="64" t="s">
+      <c r="CO2" s="50"/>
+      <c r="CP2" s="50"/>
+      <c r="CQ2" s="50"/>
+      <c r="CR2" s="50"/>
+      <c r="CS2" s="50"/>
+      <c r="CT2" s="50"/>
+      <c r="CU2" s="50"/>
+      <c r="CV2" s="50"/>
+      <c r="CW2" s="50"/>
+      <c r="CX2" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="CY2" s="64"/>
-      <c r="CZ2" s="64"/>
-      <c r="DA2" s="64"/>
-      <c r="DB2" s="64"/>
-      <c r="DC2" s="64"/>
-      <c r="DD2" s="64"/>
-      <c r="DE2" s="64"/>
-      <c r="DF2" s="64"/>
-      <c r="DG2" s="64"/>
+      <c r="CY2" s="50"/>
+      <c r="CZ2" s="50"/>
+      <c r="DA2" s="50"/>
+      <c r="DB2" s="50"/>
+      <c r="DC2" s="50"/>
+      <c r="DD2" s="50"/>
+      <c r="DE2" s="50"/>
+      <c r="DF2" s="50"/>
+      <c r="DG2" s="50"/>
     </row>
     <row r="3" spans="1:111" s="35" customFormat="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="59" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="48" t="s">
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="83"/>
-      <c r="AS3" s="83"/>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="48"/>
-      <c r="BE3" s="67"/>
-      <c r="BF3" s="68"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="74"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="73"/>
-      <c r="BN3" s="73"/>
-      <c r="BO3" s="73"/>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73"/>
-      <c r="BS3" s="73"/>
-      <c r="BT3" s="73"/>
-      <c r="BU3" s="74"/>
-      <c r="BV3" s="72"/>
-      <c r="BW3" s="73"/>
-      <c r="BX3" s="73"/>
-      <c r="BY3" s="73"/>
-      <c r="BZ3" s="73"/>
-      <c r="CA3" s="73"/>
-      <c r="CB3" s="74"/>
-      <c r="CC3" s="85"/>
-      <c r="CD3" s="72"/>
-      <c r="CE3" s="73"/>
-      <c r="CF3" s="73"/>
-      <c r="CG3" s="73"/>
-      <c r="CH3" s="73"/>
-      <c r="CI3" s="73"/>
-      <c r="CJ3" s="73"/>
-      <c r="CK3" s="73"/>
-      <c r="CL3" s="73"/>
-      <c r="CM3" s="74"/>
-      <c r="CN3" s="64"/>
-      <c r="CO3" s="64"/>
-      <c r="CP3" s="64"/>
-      <c r="CQ3" s="64"/>
-      <c r="CR3" s="64"/>
-      <c r="CS3" s="64"/>
-      <c r="CT3" s="64"/>
-      <c r="CU3" s="64"/>
-      <c r="CV3" s="64"/>
-      <c r="CW3" s="64"/>
-      <c r="CX3" s="64"/>
-      <c r="CY3" s="64"/>
-      <c r="CZ3" s="64"/>
-      <c r="DA3" s="64"/>
-      <c r="DB3" s="64"/>
-      <c r="DC3" s="64"/>
-      <c r="DD3" s="64"/>
-      <c r="DE3" s="64"/>
-      <c r="DF3" s="64"/>
-      <c r="DG3" s="64"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="54"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="60"/>
+      <c r="BJ3" s="61"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="60"/>
+      <c r="BO3" s="60"/>
+      <c r="BP3" s="60"/>
+      <c r="BQ3" s="60"/>
+      <c r="BR3" s="60"/>
+      <c r="BS3" s="60"/>
+      <c r="BT3" s="60"/>
+      <c r="BU3" s="61"/>
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="60"/>
+      <c r="BX3" s="60"/>
+      <c r="BY3" s="60"/>
+      <c r="BZ3" s="60"/>
+      <c r="CA3" s="60"/>
+      <c r="CB3" s="61"/>
+      <c r="CC3" s="73"/>
+      <c r="CD3" s="59"/>
+      <c r="CE3" s="60"/>
+      <c r="CF3" s="60"/>
+      <c r="CG3" s="60"/>
+      <c r="CH3" s="60"/>
+      <c r="CI3" s="60"/>
+      <c r="CJ3" s="60"/>
+      <c r="CK3" s="60"/>
+      <c r="CL3" s="60"/>
+      <c r="CM3" s="61"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="50"/>
+      <c r="CP3" s="50"/>
+      <c r="CQ3" s="50"/>
+      <c r="CR3" s="50"/>
+      <c r="CS3" s="50"/>
+      <c r="CT3" s="50"/>
+      <c r="CU3" s="50"/>
+      <c r="CV3" s="50"/>
+      <c r="CW3" s="50"/>
+      <c r="CX3" s="50"/>
+      <c r="CY3" s="50"/>
+      <c r="CZ3" s="50"/>
+      <c r="DA3" s="50"/>
+      <c r="DB3" s="50"/>
+      <c r="DC3" s="50"/>
+      <c r="DD3" s="50"/>
+      <c r="DE3" s="50"/>
+      <c r="DF3" s="50"/>
+      <c r="DG3" s="50"/>
     </row>
     <row r="4" spans="1:111" s="35" customFormat="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="27" t="s">
         <v>232</v>
       </c>
@@ -2196,23 +2197,23 @@
       <c r="L4" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="54"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="94"/>
       <c r="AD4" s="24" t="s">
         <v>213</v>
       </c>
@@ -2240,9 +2241,9 @@
       <c r="AL4" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
       <c r="AP4" s="25" t="s">
         <v>200</v>
       </c>
@@ -2261,19 +2262,19 @@
       <c r="AU4" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="48"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="55"/>
       <c r="BA4" s="24" t="s">
         <v>22</v>
       </c>
       <c r="BB4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="48"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
       <c r="BE4" s="2" t="s">
         <v>24</v>
       </c>
@@ -2292,7 +2293,7 @@
       <c r="BJ4" s="23">
         <v>2020</v>
       </c>
-      <c r="BK4" s="64"/>
+      <c r="BK4" s="50"/>
       <c r="BL4" s="23">
         <v>2011</v>
       </c>
@@ -2344,7 +2345,7 @@
       <c r="CB4" s="23">
         <v>2020</v>
       </c>
-      <c r="CC4" s="85"/>
+      <c r="CC4" s="73"/>
       <c r="CD4" s="23">
         <v>2011</v>
       </c>
@@ -4136,6 +4137,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BL1:BU1"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="CD1:CM1"/>
+    <mergeCell ref="CN1:CW1"/>
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="CX2:DG3"/>
     <mergeCell ref="BE2:BF3"/>
     <mergeCell ref="AI3:AL3"/>
@@ -4152,48 +4195,6 @@
     <mergeCell ref="AO2:AO4"/>
     <mergeCell ref="BK2:BK4"/>
     <mergeCell ref="CC2:CC4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="AD2:AL2"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AM2:AM4"/>
-    <mergeCell ref="AN2:AN4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="CD1:CM1"/>
-    <mergeCell ref="CN1:CW1"/>
-    <mergeCell ref="AP1:AU1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BL1:BU1"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="AC2:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4290,7 +4291,7 @@
   <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4314,10 +4315,10 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="42" t="s">
         <v>254</v>
       </c>
       <c r="C3" s="38" t="s">
@@ -4347,327 +4348,328 @@
       <c r="K3" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="41">
         <v>21</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="86">
+      <c r="D4" s="41">
         <v>220221</v>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="44">
         <v>6000000</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F4" s="41">
         <f>2/100</f>
         <v>0.02</v>
       </c>
-      <c r="G4" s="90">
+      <c r="G4" s="45">
         <f>E4*F4</f>
         <v>120000</v>
       </c>
-      <c r="H4" s="90">
+      <c r="H4" s="45">
         <f>E4/J4</f>
         <v>1000000</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="45">
         <f>H4+E4*F4</f>
         <v>1120000</v>
       </c>
-      <c r="J4" s="86">
+      <c r="J4" s="41">
         <v>6</v>
       </c>
-      <c r="K4" s="89">
+      <c r="K4" s="44">
         <f>I4</f>
         <v>1120000</v>
       </c>
-      <c r="L4" s="95">
+      <c r="L4" s="47">
         <f>E4-I22</f>
         <v>4000000</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="41">
         <v>22</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="41">
         <v>220222</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="44">
         <v>4000000</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="41">
         <f>5/100</f>
         <v>0.05</v>
       </c>
-      <c r="G5" s="90">
+      <c r="G5" s="45">
         <f t="shared" ref="G5:G9" si="0">E5*F5</f>
         <v>200000</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="44">
         <v>500000</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="45">
         <f t="shared" ref="I5:I9" si="1">H5+E5*F5</f>
         <v>700000</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J5" s="41">
         <v>8</v>
       </c>
-      <c r="K5" s="89">
+      <c r="K5" s="44">
         <f t="shared" ref="K5:K9" si="2">I5</f>
         <v>700000</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="90">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="90">
+      <c r="H6" s="43"/>
+      <c r="I6" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="89">
+      <c r="J6" s="41"/>
+      <c r="K6" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="90">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="90">
+      <c r="H7" s="43"/>
+      <c r="I7" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="89">
+      <c r="J7" s="41"/>
+      <c r="K7" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="90">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="90">
+      <c r="H8" s="43"/>
+      <c r="I8" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="89">
+      <c r="J8" s="41"/>
+      <c r="K8" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="90">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="90">
+      <c r="H9" s="43"/>
+      <c r="I9" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="89">
+      <c r="J9" s="41"/>
+      <c r="K9" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="E10" s="96"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="E12" s="91"/>
+      <c r="E12" s="97"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="97"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="I14" s="87" t="s">
+      <c r="I14" s="42" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="86">
+      <c r="B15" s="41">
         <v>21</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="41">
         <v>220221</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="41">
         <v>1</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="44">
         <f>K4</f>
         <v>1120000</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90">
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
         <f>E4*F4</f>
         <v>120000</v>
       </c>
-      <c r="I15" s="90">
+      <c r="I15" s="45">
         <f>F15-H15</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="86">
+      <c r="B16" s="41">
         <v>21</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="41">
         <v>220221</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="41">
         <v>2</v>
       </c>
-      <c r="F16" s="89">
+      <c r="F16" s="44">
         <f>K4</f>
         <v>1120000</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90">
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
         <f>E4*F4</f>
         <v>120000</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="45">
         <f>F16-H16</f>
         <v>1000000</v>
       </c>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="I22" s="95">
+      <c r="I22" s="47">
         <f>SUMIF(B15:B21,B15,I15:I21)</f>
         <v>2000000</v>
       </c>

--- a/Konsep Aplikasi Master Data HC.xlsx
+++ b/Konsep Aplikasi Master Data HC.xlsx
@@ -783,9 +783,6 @@
     <t>Pokok</t>
   </si>
   <si>
-    <t>Cicilan</t>
-  </si>
-  <si>
     <t>Pembayaran Bulanan</t>
   </si>
   <si>
@@ -811,6 +808,9 @@
   </si>
   <si>
     <t>Total Bunga</t>
+  </si>
+  <si>
+    <t>Bunga Per bulan</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1128,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,6 +1247,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,9 +1335,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1311,77 +1381,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1391,7 +1395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1670,7 +1673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1774,19 +1777,19 @@
       <c r="AC1" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AD1" s="78" t="s">
+      <c r="AD1" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78" t="s">
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
       <c r="AM1" s="21" t="s">
         <v>241</v>
       </c>
@@ -1796,398 +1799,398 @@
       <c r="AO1" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AP1" s="78" t="s">
+      <c r="AP1" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="BG1" s="78" t="s">
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="BG1" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
       <c r="BK1" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="BL1" s="78" t="s">
+      <c r="BL1" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="BM1" s="78"/>
-      <c r="BN1" s="78"/>
-      <c r="BO1" s="78"/>
-      <c r="BP1" s="78"/>
-      <c r="BQ1" s="78"/>
-      <c r="BR1" s="78"/>
-      <c r="BS1" s="78"/>
-      <c r="BT1" s="78"/>
-      <c r="BU1" s="78"/>
-      <c r="CD1" s="78" t="s">
+      <c r="BM1" s="52"/>
+      <c r="BN1" s="52"/>
+      <c r="BO1" s="52"/>
+      <c r="BP1" s="52"/>
+      <c r="BQ1" s="52"/>
+      <c r="BR1" s="52"/>
+      <c r="BS1" s="52"/>
+      <c r="BT1" s="52"/>
+      <c r="BU1" s="52"/>
+      <c r="CD1" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="CE1" s="78"/>
-      <c r="CF1" s="78"/>
-      <c r="CG1" s="78"/>
-      <c r="CH1" s="78"/>
-      <c r="CI1" s="78"/>
-      <c r="CJ1" s="78"/>
-      <c r="CK1" s="78"/>
-      <c r="CL1" s="78"/>
-      <c r="CM1" s="78"/>
-      <c r="CN1" s="78" t="s">
+      <c r="CE1" s="52"/>
+      <c r="CF1" s="52"/>
+      <c r="CG1" s="52"/>
+      <c r="CH1" s="52"/>
+      <c r="CI1" s="52"/>
+      <c r="CJ1" s="52"/>
+      <c r="CK1" s="52"/>
+      <c r="CL1" s="52"/>
+      <c r="CM1" s="52"/>
+      <c r="CN1" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="CO1" s="78"/>
-      <c r="CP1" s="78"/>
-      <c r="CQ1" s="78"/>
-      <c r="CR1" s="78"/>
-      <c r="CS1" s="78"/>
-      <c r="CT1" s="78"/>
-      <c r="CU1" s="78"/>
-      <c r="CV1" s="78"/>
-      <c r="CW1" s="78"/>
+      <c r="CO1" s="52"/>
+      <c r="CP1" s="52"/>
+      <c r="CQ1" s="52"/>
+      <c r="CR1" s="52"/>
+      <c r="CS1" s="52"/>
+      <c r="CT1" s="52"/>
+      <c r="CU1" s="52"/>
+      <c r="CV1" s="52"/>
+      <c r="CW1" s="52"/>
     </row>
     <row r="2" spans="1:111" s="35" customFormat="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="79" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="V2" s="55" t="s">
+      <c r="V2" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="W2" s="55" t="s">
+      <c r="W2" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="X2" s="89" t="s">
+      <c r="X2" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="89" t="s">
+      <c r="Y2" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" s="89" t="s">
+      <c r="Z2" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="AA2" s="89" t="s">
+      <c r="AA2" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="AB2" s="89" t="s">
+      <c r="AB2" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" s="92" t="s">
+      <c r="AC2" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AD2" s="75" t="s">
+      <c r="AD2" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="72" t="s">
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="AN2" s="72" t="s">
+      <c r="AN2" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="72" t="s">
+      <c r="AO2" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="66" t="s">
+      <c r="AP2" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="55" t="s">
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="91"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="55" t="s">
+      <c r="AW2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="72" t="s">
+      <c r="AX2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AY2" s="72" t="s">
+      <c r="AY2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AZ2" s="55" t="s">
+      <c r="AZ2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="BA2" s="62" t="s">
+      <c r="BA2" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="BB2" s="63"/>
-      <c r="BC2" s="55" t="s">
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="55" t="s">
+      <c r="BD2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="BE2" s="51" t="s">
+      <c r="BE2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="56" t="s">
+      <c r="BF2" s="77"/>
+      <c r="BG2" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="50" t="s">
+      <c r="BH2" s="81"/>
+      <c r="BI2" s="81"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="BL2" s="56" t="s">
+      <c r="BL2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="BM2" s="57"/>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="57"/>
-      <c r="BP2" s="57"/>
-      <c r="BQ2" s="57"/>
-      <c r="BR2" s="57"/>
-      <c r="BS2" s="57"/>
-      <c r="BT2" s="57"/>
-      <c r="BU2" s="58"/>
-      <c r="BV2" s="56" t="s">
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="81"/>
+      <c r="BQ2" s="81"/>
+      <c r="BR2" s="81"/>
+      <c r="BS2" s="81"/>
+      <c r="BT2" s="81"/>
+      <c r="BU2" s="82"/>
+      <c r="BV2" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="BW2" s="57"/>
-      <c r="BX2" s="57"/>
-      <c r="BY2" s="57"/>
-      <c r="BZ2" s="57"/>
-      <c r="CA2" s="57"/>
-      <c r="CB2" s="58"/>
-      <c r="CC2" s="73" t="s">
+      <c r="BW2" s="81"/>
+      <c r="BX2" s="81"/>
+      <c r="BY2" s="81"/>
+      <c r="BZ2" s="81"/>
+      <c r="CA2" s="81"/>
+      <c r="CB2" s="82"/>
+      <c r="CC2" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="CD2" s="56" t="s">
+      <c r="CD2" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="CE2" s="57"/>
-      <c r="CF2" s="57"/>
-      <c r="CG2" s="57"/>
-      <c r="CH2" s="57"/>
-      <c r="CI2" s="57"/>
-      <c r="CJ2" s="57"/>
-      <c r="CK2" s="57"/>
-      <c r="CL2" s="57"/>
-      <c r="CM2" s="58"/>
-      <c r="CN2" s="50" t="s">
+      <c r="CE2" s="81"/>
+      <c r="CF2" s="81"/>
+      <c r="CG2" s="81"/>
+      <c r="CH2" s="81"/>
+      <c r="CI2" s="81"/>
+      <c r="CJ2" s="81"/>
+      <c r="CK2" s="81"/>
+      <c r="CL2" s="81"/>
+      <c r="CM2" s="82"/>
+      <c r="CN2" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="CO2" s="50"/>
-      <c r="CP2" s="50"/>
-      <c r="CQ2" s="50"/>
-      <c r="CR2" s="50"/>
-      <c r="CS2" s="50"/>
-      <c r="CT2" s="50"/>
-      <c r="CU2" s="50"/>
-      <c r="CV2" s="50"/>
-      <c r="CW2" s="50"/>
-      <c r="CX2" s="50" t="s">
+      <c r="CO2" s="75"/>
+      <c r="CP2" s="75"/>
+      <c r="CQ2" s="75"/>
+      <c r="CR2" s="75"/>
+      <c r="CS2" s="75"/>
+      <c r="CT2" s="75"/>
+      <c r="CU2" s="75"/>
+      <c r="CV2" s="75"/>
+      <c r="CW2" s="75"/>
+      <c r="CX2" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="CY2" s="50"/>
-      <c r="CZ2" s="50"/>
-      <c r="DA2" s="50"/>
-      <c r="DB2" s="50"/>
-      <c r="DC2" s="50"/>
-      <c r="DD2" s="50"/>
-      <c r="DE2" s="50"/>
-      <c r="DF2" s="50"/>
-      <c r="DG2" s="50"/>
+      <c r="CY2" s="75"/>
+      <c r="CZ2" s="75"/>
+      <c r="DA2" s="75"/>
+      <c r="DB2" s="75"/>
+      <c r="DC2" s="75"/>
+      <c r="DD2" s="75"/>
+      <c r="DE2" s="75"/>
+      <c r="DF2" s="75"/>
+      <c r="DG2" s="75"/>
     </row>
     <row r="3" spans="1:111" s="35" customFormat="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="75" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="55" t="s">
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="55"/>
-      <c r="BD3" s="55"/>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="54"/>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="61"/>
-      <c r="BK3" s="50"/>
-      <c r="BL3" s="59"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
-      <c r="BR3" s="60"/>
-      <c r="BS3" s="60"/>
-      <c r="BT3" s="60"/>
-      <c r="BU3" s="61"/>
-      <c r="BV3" s="59"/>
-      <c r="BW3" s="60"/>
-      <c r="BX3" s="60"/>
-      <c r="BY3" s="60"/>
-      <c r="BZ3" s="60"/>
-      <c r="CA3" s="60"/>
-      <c r="CB3" s="61"/>
-      <c r="CC3" s="73"/>
-      <c r="CD3" s="59"/>
-      <c r="CE3" s="60"/>
-      <c r="CF3" s="60"/>
-      <c r="CG3" s="60"/>
-      <c r="CH3" s="60"/>
-      <c r="CI3" s="60"/>
-      <c r="CJ3" s="60"/>
-      <c r="CK3" s="60"/>
-      <c r="CL3" s="60"/>
-      <c r="CM3" s="61"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="50"/>
-      <c r="CP3" s="50"/>
-      <c r="CQ3" s="50"/>
-      <c r="CR3" s="50"/>
-      <c r="CS3" s="50"/>
-      <c r="CT3" s="50"/>
-      <c r="CU3" s="50"/>
-      <c r="CV3" s="50"/>
-      <c r="CW3" s="50"/>
-      <c r="CX3" s="50"/>
-      <c r="CY3" s="50"/>
-      <c r="CZ3" s="50"/>
-      <c r="DA3" s="50"/>
-      <c r="DB3" s="50"/>
-      <c r="DC3" s="50"/>
-      <c r="DD3" s="50"/>
-      <c r="DE3" s="50"/>
-      <c r="DF3" s="50"/>
-      <c r="DG3" s="50"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="95"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="88"/>
+      <c r="BB3" s="89"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="79"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="84"/>
+      <c r="BI3" s="84"/>
+      <c r="BJ3" s="85"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="84"/>
+      <c r="BN3" s="84"/>
+      <c r="BO3" s="84"/>
+      <c r="BP3" s="84"/>
+      <c r="BQ3" s="84"/>
+      <c r="BR3" s="84"/>
+      <c r="BS3" s="84"/>
+      <c r="BT3" s="84"/>
+      <c r="BU3" s="85"/>
+      <c r="BV3" s="83"/>
+      <c r="BW3" s="84"/>
+      <c r="BX3" s="84"/>
+      <c r="BY3" s="84"/>
+      <c r="BZ3" s="84"/>
+      <c r="CA3" s="84"/>
+      <c r="CB3" s="85"/>
+      <c r="CC3" s="96"/>
+      <c r="CD3" s="83"/>
+      <c r="CE3" s="84"/>
+      <c r="CF3" s="84"/>
+      <c r="CG3" s="84"/>
+      <c r="CH3" s="84"/>
+      <c r="CI3" s="84"/>
+      <c r="CJ3" s="84"/>
+      <c r="CK3" s="84"/>
+      <c r="CL3" s="84"/>
+      <c r="CM3" s="85"/>
+      <c r="CN3" s="75"/>
+      <c r="CO3" s="75"/>
+      <c r="CP3" s="75"/>
+      <c r="CQ3" s="75"/>
+      <c r="CR3" s="75"/>
+      <c r="CS3" s="75"/>
+      <c r="CT3" s="75"/>
+      <c r="CU3" s="75"/>
+      <c r="CV3" s="75"/>
+      <c r="CW3" s="75"/>
+      <c r="CX3" s="75"/>
+      <c r="CY3" s="75"/>
+      <c r="CZ3" s="75"/>
+      <c r="DA3" s="75"/>
+      <c r="DB3" s="75"/>
+      <c r="DC3" s="75"/>
+      <c r="DD3" s="75"/>
+      <c r="DE3" s="75"/>
+      <c r="DF3" s="75"/>
+      <c r="DG3" s="75"/>
     </row>
     <row r="4" spans="1:111" s="35" customFormat="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="74"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="27" t="s">
         <v>232</v>
       </c>
@@ -2197,23 +2200,23 @@
       <c r="L4" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="94"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="65"/>
       <c r="AD4" s="24" t="s">
         <v>213</v>
       </c>
@@ -2241,9 +2244,9 @@
       <c r="AL4" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
       <c r="AP4" s="25" t="s">
         <v>200</v>
       </c>
@@ -2262,19 +2265,19 @@
       <c r="AU4" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="55"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="59"/>
       <c r="BA4" s="24" t="s">
         <v>22</v>
       </c>
       <c r="BB4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="59"/>
       <c r="BE4" s="2" t="s">
         <v>24</v>
       </c>
@@ -2293,7 +2296,7 @@
       <c r="BJ4" s="23">
         <v>2020</v>
       </c>
-      <c r="BK4" s="50"/>
+      <c r="BK4" s="75"/>
       <c r="BL4" s="23">
         <v>2011</v>
       </c>
@@ -2345,7 +2348,7 @@
       <c r="CB4" s="23">
         <v>2020</v>
       </c>
-      <c r="CC4" s="73"/>
+      <c r="CC4" s="96"/>
       <c r="CD4" s="23">
         <v>2011</v>
       </c>
@@ -4137,6 +4140,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="CX2:DG3"/>
+    <mergeCell ref="BE2:BF3"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="CN2:CW3"/>
+    <mergeCell ref="CD2:CM3"/>
+    <mergeCell ref="BV2:CB3"/>
+    <mergeCell ref="BL2:BU3"/>
+    <mergeCell ref="BG2:BJ3"/>
+    <mergeCell ref="BA2:BB3"/>
+    <mergeCell ref="AP2:AU3"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="BK2:BK4"/>
+    <mergeCell ref="CC2:CC4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="CD1:CM1"/>
+    <mergeCell ref="CN1:CW1"/>
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
     <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="J2:L3"/>
@@ -4153,48 +4198,6 @@
     <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="Y2:Y4"/>
     <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="CD1:CM1"/>
-    <mergeCell ref="CN1:CW1"/>
-    <mergeCell ref="AP1:AU1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AD2:AL2"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AM2:AM4"/>
-    <mergeCell ref="AN2:AN4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="CX2:DG3"/>
-    <mergeCell ref="BE2:BF3"/>
-    <mergeCell ref="AI3:AL3"/>
-    <mergeCell ref="CN2:CW3"/>
-    <mergeCell ref="CD2:CM3"/>
-    <mergeCell ref="BV2:CB3"/>
-    <mergeCell ref="BL2:BU3"/>
-    <mergeCell ref="BG2:BJ3"/>
-    <mergeCell ref="BA2:BB3"/>
-    <mergeCell ref="AP2:AU3"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="BK2:BK4"/>
-    <mergeCell ref="CC2:CC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4291,7 +4294,7 @@
   <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4302,8 +4305,8 @@
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -4311,15 +4314,15 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="E2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>245</v>
@@ -4331,16 +4334,16 @@
         <v>213</v>
       </c>
       <c r="F3" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="H3" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="I3" s="38" t="s">
         <v>250</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>251</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>247</v>
@@ -4369,30 +4372,30 @@
         <v>6000000</v>
       </c>
       <c r="F4" s="41">
-        <f>2/100</f>
-        <v>0.02</v>
+        <f>4/100</f>
+        <v>0.04</v>
       </c>
       <c r="G4" s="45">
         <f>E4*F4</f>
-        <v>120000</v>
-      </c>
-      <c r="H4" s="45">
+        <v>240000</v>
+      </c>
+      <c r="H4" s="44">
+        <f>G4/J4</f>
+        <v>40000</v>
+      </c>
+      <c r="I4" s="45">
         <f>E4/J4</f>
         <v>1000000</v>
       </c>
-      <c r="I4" s="45">
-        <f>H4+E4*F4</f>
-        <v>1120000</v>
-      </c>
       <c r="J4" s="41">
         <v>6</v>
       </c>
       <c r="K4" s="44">
-        <f>I4</f>
-        <v>1120000</v>
+        <f>I4+H4</f>
+        <v>1040000</v>
       </c>
       <c r="L4" s="47">
-        <f>E4-I22</f>
+        <f>E4-H22</f>
         <v>4000000</v>
       </c>
     </row>
@@ -4404,36 +4407,18 @@
         <v>22</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="41">
         <v>220222</v>
       </c>
-      <c r="E5" s="44">
-        <v>4000000</v>
-      </c>
-      <c r="F5" s="41">
-        <f>5/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="G5" s="45">
-        <f t="shared" ref="G5:G9" si="0">E5*F5</f>
-        <v>200000</v>
-      </c>
-      <c r="H5" s="44">
-        <v>500000</v>
-      </c>
-      <c r="I5" s="45">
-        <f t="shared" ref="I5:I9" si="1">H5+E5*F5</f>
-        <v>700000</v>
-      </c>
-      <c r="J5" s="41">
-        <v>8</v>
-      </c>
-      <c r="K5" s="44">
-        <f t="shared" ref="K5:K9" si="2">I5</f>
-        <v>700000</v>
-      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="41"/>
@@ -4442,20 +4427,11 @@
       <c r="D6" s="41"/>
       <c r="E6" s="43"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="41"/>
@@ -4464,20 +4440,11 @@
       <c r="D7" s="41"/>
       <c r="E7" s="43"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="41"/>
@@ -4486,20 +4453,11 @@
       <c r="D8" s="41"/>
       <c r="E8" s="43"/>
       <c r="F8" s="41"/>
-      <c r="G8" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="41"/>
@@ -4508,40 +4466,32 @@
       <c r="D9" s="41"/>
       <c r="E9" s="43"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:12">
       <c r="E10" s="48"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="D12" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="E12" s="97"/>
+      <c r="D12" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" s="99"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>245</v>
@@ -4550,16 +4500,15 @@
         <v>246</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="42"/>
+      <c r="G14" s="42" t="s">
+        <v>244</v>
+      </c>
       <c r="H14" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="I14" s="42" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4578,15 +4527,14 @@
       </c>
       <c r="F15" s="44">
         <f>K4</f>
-        <v>1120000</v>
-      </c>
-      <c r="G15" s="44"/>
+        <v>1040000</v>
+      </c>
+      <c r="G15" s="45">
+        <f>G4/J4</f>
+        <v>40000</v>
+      </c>
       <c r="H15" s="45">
-        <f>E4*F4</f>
-        <v>120000</v>
-      </c>
-      <c r="I15" s="45">
-        <f>F15-H15</f>
+        <f>F15-G15</f>
         <v>1000000</v>
       </c>
     </row>
@@ -4605,20 +4553,19 @@
       </c>
       <c r="F16" s="44">
         <f>K4</f>
-        <v>1120000</v>
-      </c>
-      <c r="G16" s="44"/>
+        <v>1040000</v>
+      </c>
+      <c r="G16" s="45">
+        <f>G4/J4</f>
+        <v>40000</v>
+      </c>
       <c r="H16" s="45">
-        <f>E4*F4</f>
-        <v>120000</v>
-      </c>
-      <c r="I16" s="45">
-        <f>F16-H16</f>
+        <f>F16-G16</f>
         <v>1000000</v>
       </c>
-      <c r="K16" s="98"/>
+      <c r="K16" s="51"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:8">
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -4626,9 +4573,8 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:8">
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
@@ -4636,9 +4582,8 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:8">
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
@@ -4646,9 +4591,8 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:8">
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -4656,9 +4600,8 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:8">
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -4666,11 +4609,10 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
     </row>
-    <row r="22" spans="2:9">
-      <c r="I22" s="47">
-        <f>SUMIF(B15:B21,B15,I15:I21)</f>
+    <row r="22" spans="2:8">
+      <c r="H22" s="47">
+        <f>SUMIF(B15:B21,B15,H15:H21)</f>
         <v>2000000</v>
       </c>
     </row>
